--- a/app/config/tables/pediatria/forms/lateroundsQuick/lateroundsQuick.xlsx
+++ b/app/config/tables/pediatria/forms/lateroundsQuick/lateroundsQuick.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E3CF64-40FA-4820-A19C-158CA6E4D523}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38322EBF-46D3-43F9-BF09-20D7A8DD1F0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14131,7 +14131,7 @@
         <v>88</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C70" s="15" t="b">
         <v>1</v>
@@ -14153,7 +14153,7 @@
         <v>89</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C72" s="15" t="b">
         <v>1</v>
@@ -14175,7 +14175,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C74" s="15" t="b">
         <v>1</v>

--- a/app/config/tables/pediatria/forms/lateroundsQuick/lateroundsQuick.xlsx
+++ b/app/config/tables/pediatria/forms/lateroundsQuick/lateroundsQuick.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38322EBF-46D3-43F9-BF09-20D7A8DD1F0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9DFE49-7D85-43E9-8B7E-DDD1FD2BC5B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="911">
   <si>
     <t>setting_name</t>
   </si>
@@ -1292,9 +1292,6 @@
     <t>[data('nome')]</t>
   </si>
   <si>
-    <t>Registered rounds</t>
-  </si>
-  <si>
     <t>do section survey</t>
   </si>
   <si>
@@ -1733,9 +1730,6 @@
     <t>data('vpinjVI')</t>
   </si>
   <si>
-    <t>Date of VAS (Sarampo 1)</t>
-  </si>
-  <si>
     <t>Data de VAS (Sarampo 1)</t>
   </si>
   <si>
@@ -1754,9 +1748,6 @@
     <t>Date of VAA (Yellow fever)</t>
   </si>
   <si>
-    <t>Data de VAA (Fevre amarelio)</t>
-  </si>
-  <si>
     <t>data('vfamVI')&gt;=data('dob')|| data('vfamVI')==null</t>
   </si>
   <si>
@@ -1814,9 +1805,6 @@
     <t>VPI</t>
   </si>
   <si>
-    <t>VAA (Fevre amarelio)</t>
-  </si>
-  <si>
     <t>vdcart</t>
   </si>
   <si>
@@ -1910,9 +1898,6 @@
     <t>Idade da criança (dias)</t>
   </si>
   <si>
-    <t>Choose studies</t>
-  </si>
-  <si>
     <t>Choose all studynr prefixes</t>
   </si>
   <si>
@@ -2246,12 +2231,6 @@
     <t>If older than 5</t>
   </si>
   <si>
-    <t>Did the child take part in the April 2018 campaign?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A criança tinha participado na campanha de vacinação no mês de Abril de 2018 ? </t>
-  </si>
-  <si>
     <t>campcode</t>
   </si>
   <si>
@@ -2672,7 +2651,121 @@
     <t>Add child from Lola's round</t>
   </si>
   <si>
-    <t>Day of round</t>
+    <t>NTN - Não tem cartão e não tem vacinas</t>
+  </si>
+  <si>
+    <t>NTS - Não tem cartão, mas tem vacinas</t>
+  </si>
+  <si>
+    <t>Data desconhecida</t>
+  </si>
+  <si>
+    <t>Status desconhecido</t>
+  </si>
+  <si>
+    <t>Não sabe o número</t>
+  </si>
+  <si>
+    <t>Apenas consulta</t>
+  </si>
+  <si>
+    <t>Admitido para observação</t>
+  </si>
+  <si>
+    <t>Incrustado</t>
+  </si>
+  <si>
+    <t>Nenhum diagnóstico</t>
+  </si>
+  <si>
+    <t>Ainda admitido</t>
+  </si>
+  <si>
+    <t>Viveu descarregado</t>
+  </si>
+  <si>
+    <t>Morreu durante a admissão</t>
+  </si>
+  <si>
+    <t>Deixou</t>
+  </si>
+  <si>
+    <t>Cama desconhecida</t>
+  </si>
+  <si>
+    <t>Positivo</t>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>Não realizado</t>
+  </si>
+  <si>
+    <t>Tempo desconhecido</t>
+  </si>
+  <si>
+    <t>Day of check</t>
+  </si>
+  <si>
+    <t>Dia de cheque</t>
+  </si>
+  <si>
+    <t>Assistente</t>
+  </si>
+  <si>
+    <t>Status da criança</t>
+  </si>
+  <si>
+    <t>Choose studie(s)</t>
+  </si>
+  <si>
+    <t>Escolha estudoa(s)</t>
+  </si>
+  <si>
+    <t>Descrição de onde a criança vive</t>
+  </si>
+  <si>
+    <t>As pessoas do projeto vêm pela aldeia?</t>
+  </si>
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>Nome da tabanca</t>
+  </si>
+  <si>
+    <t>Outra:</t>
+  </si>
+  <si>
+    <t>Date of VAS (Measles 1)</t>
+  </si>
+  <si>
+    <t>Data de VAA (Febre amarela)</t>
+  </si>
+  <si>
+    <t>VAS (Measles 1)</t>
+  </si>
+  <si>
+    <t>VAS (Sarampo 1)</t>
+  </si>
+  <si>
+    <t>VAA (Yellow fever)</t>
+  </si>
+  <si>
+    <t>VAA (Febre amarela)</t>
+  </si>
+  <si>
+    <t>Did the child take part in the May 2019 campaign?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A criança tinha participado na campanha de vacinação no mês de Maio de 2019 ? </t>
+  </si>
+  <si>
+    <t>Registered check(s)</t>
+  </si>
+  <si>
+    <t>Cheque(s) registrado(s)</t>
   </si>
 </sst>
 </file>
@@ -2730,7 +2823,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2788,12 +2881,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2863,7 +2950,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2897,12 +2984,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="15" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="14" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2915,8 +3001,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{B24E2DBD-C98B-43BE-8700-82C21F1CBFF5}"/>
@@ -3240,7 +3326,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3249,7 +3335,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3306,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3322,7 +3408,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3330,10 +3416,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="D5" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -3378,9 +3464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
   <dimension ref="A1:R406"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C404" sqref="C404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3388,7 +3474,7 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.42578125" customWidth="1"/>
@@ -3467,10 +3553,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="G3" t="s">
-        <v>879</v>
+        <v>890</v>
+      </c>
+      <c r="H3" t="s">
+        <v>891</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -3489,10 +3578,13 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="G4" t="s">
-        <v>873</v>
+        <v>866</v>
+      </c>
+      <c r="H4" t="s">
+        <v>892</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -3500,7 +3592,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F5" t="s">
         <v>378</v>
@@ -3514,7 +3606,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F6" t="s">
         <v>400</v>
@@ -3522,13 +3614,16 @@
       <c r="G6" t="s">
         <v>389</v>
       </c>
+      <c r="H6" t="s">
+        <v>893</v>
+      </c>
       <c r="L6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F7" t="s">
         <v>388</v>
@@ -3544,7 +3639,7 @@
     </row>
     <row r="9" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -3559,13 +3654,13 @@
         <v>328</v>
       </c>
       <c r="G10" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="H10" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="P10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3580,10 +3675,10 @@
         <v>336</v>
       </c>
       <c r="G11" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="H11" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3595,10 +3690,10 @@
         <v>321</v>
       </c>
       <c r="G12" t="s">
+        <v>420</v>
+      </c>
+      <c r="H12" t="s">
         <v>421</v>
-      </c>
-      <c r="H12" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3619,22 +3714,22 @@
         <v>373</v>
       </c>
       <c r="C14" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="Q14" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="D15" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G15" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H15" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3646,13 +3741,13 @@
         <v>304</v>
       </c>
       <c r="G16" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H16" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="P16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3664,22 +3759,22 @@
         <v>327</v>
       </c>
       <c r="G17" t="s">
+        <v>614</v>
+      </c>
+      <c r="H17" t="s">
+        <v>615</v>
+      </c>
+      <c r="I17" t="s">
+        <v>616</v>
+      </c>
+      <c r="J17" t="s">
+        <v>617</v>
+      </c>
+      <c r="K17" t="s">
         <v>618</v>
       </c>
-      <c r="H17" t="s">
-        <v>619</v>
-      </c>
-      <c r="I17" t="s">
-        <v>620</v>
-      </c>
-      <c r="J17" t="s">
-        <v>621</v>
-      </c>
-      <c r="K17" t="s">
-        <v>622</v>
-      </c>
       <c r="P17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3688,16 +3783,16 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="G18" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="H18" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="P18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3709,13 +3804,13 @@
         <v>320</v>
       </c>
       <c r="G19" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="H19" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="P19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3748,10 +3843,13 @@
         <v>247</v>
       </c>
       <c r="G23" t="s">
-        <v>625</v>
+        <v>894</v>
+      </c>
+      <c r="H23" t="s">
+        <v>895</v>
       </c>
       <c r="Q23" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3763,13 +3861,13 @@
     <row r="25" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C25" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="Q25" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3784,25 +3882,25 @@
         <v>373</v>
       </c>
       <c r="C27" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="Q27" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="D28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F28" t="s">
         <v>293</v>
       </c>
       <c r="L28" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="Q28" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3814,16 +3912,16 @@
         <v>293</v>
       </c>
       <c r="G29" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="H29" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3835,25 +3933,25 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q30" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="D31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F31" t="s">
         <v>308</v>
       </c>
       <c r="L31" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="Q31" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3868,25 +3966,25 @@
         <v>373</v>
       </c>
       <c r="C33" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="Q33" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="D34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F34" t="s">
         <v>294</v>
       </c>
       <c r="L34" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="Q34" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3898,10 +3996,10 @@
         <v>294</v>
       </c>
       <c r="G35" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="H35" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -3916,19 +4014,19 @@
         <v>88</v>
       </c>
       <c r="P36" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="D37" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F37" t="s">
         <v>309</v>
       </c>
       <c r="L37" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3943,25 +4041,25 @@
         <v>373</v>
       </c>
       <c r="C39" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="Q39" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="D40" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F40" t="s">
         <v>295</v>
       </c>
       <c r="L40" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="Q40" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3973,10 +4071,10 @@
         <v>295</v>
       </c>
       <c r="G41" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="H41" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -3991,19 +4089,19 @@
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="D43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F43" t="s">
         <v>310</v>
       </c>
       <c r="L43" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -4020,7 +4118,7 @@
     </row>
     <row r="46" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
@@ -4035,13 +4133,13 @@
         <v>319</v>
       </c>
       <c r="G47" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="H47" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="P47" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -4050,7 +4148,7 @@
         <v>145</v>
       </c>
       <c r="E48" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="F48" t="s">
         <v>284</v>
@@ -4062,16 +4160,16 @@
         <v>373</v>
       </c>
       <c r="C49" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="Q49" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="D50" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F50" t="s">
         <v>319</v>
@@ -4110,10 +4208,10 @@
         <v>333</v>
       </c>
       <c r="G54" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H54" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -4122,10 +4220,10 @@
         <v>373</v>
       </c>
       <c r="C55" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="Q55" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -4140,13 +4238,13 @@
         <v>234</v>
       </c>
       <c r="G56" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="H56" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="Q56" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -4155,10 +4253,10 @@
         <v>373</v>
       </c>
       <c r="C57" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="Q57" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -4173,25 +4271,25 @@
         <v>241</v>
       </c>
       <c r="G58" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H58" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="P58" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="D59" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F59" t="s">
         <v>339</v>
       </c>
       <c r="L59" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -4206,10 +4304,10 @@
         <v>373</v>
       </c>
       <c r="C61" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="Q61" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -4224,25 +4322,25 @@
         <v>242</v>
       </c>
       <c r="G62" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H62" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="P62" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="D63" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F63" t="s">
         <v>339</v>
       </c>
       <c r="L63" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -4257,10 +4355,10 @@
         <v>373</v>
       </c>
       <c r="C65" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="Q65" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -4275,25 +4373,25 @@
         <v>243</v>
       </c>
       <c r="G66" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H66" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="P66" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="D67" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F67" t="s">
         <v>339</v>
       </c>
       <c r="L67" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -4308,10 +4406,10 @@
         <v>373</v>
       </c>
       <c r="C69" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="Q69" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -4326,25 +4424,25 @@
         <v>244</v>
       </c>
       <c r="G70" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H70" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="P70" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="D71" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F71" t="s">
         <v>339</v>
       </c>
       <c r="L71" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -4359,10 +4457,10 @@
         <v>373</v>
       </c>
       <c r="C73" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="Q73" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -4377,25 +4475,25 @@
         <v>245</v>
       </c>
       <c r="G74" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H74" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="P74" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
       <c r="D75" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F75" t="s">
         <v>339</v>
       </c>
       <c r="L75" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -4410,10 +4508,10 @@
         <v>373</v>
       </c>
       <c r="C77" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="Q77" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -4428,25 +4526,25 @@
         <v>246</v>
       </c>
       <c r="G78" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H78" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="P78" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
       <c r="D79" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F79" t="s">
         <v>339</v>
       </c>
       <c r="L79" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -4461,10 +4559,10 @@
         <v>373</v>
       </c>
       <c r="C81" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="Q81" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -4476,22 +4574,25 @@
         <v>249</v>
       </c>
       <c r="G82" t="s">
-        <v>848</v>
+        <v>841</v>
+      </c>
+      <c r="H82" t="s">
+        <v>896</v>
       </c>
       <c r="P82" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
       <c r="D83" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F83" t="s">
         <v>339</v>
       </c>
       <c r="L83" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
@@ -4506,10 +4607,10 @@
         <v>373</v>
       </c>
       <c r="C85" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="Q85" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -4521,13 +4622,13 @@
         <v>218</v>
       </c>
       <c r="G86" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="H86" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="P86" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -4548,16 +4649,16 @@
         <v>373</v>
       </c>
       <c r="C88" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="Q88" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
       <c r="D89" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F89" t="s">
         <v>218</v>
@@ -4578,10 +4679,10 @@
         <v>373</v>
       </c>
       <c r="C91" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="Q91" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
@@ -4590,16 +4691,19 @@
         <v>8</v>
       </c>
       <c r="F92" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="G92" t="s">
-        <v>848</v>
+        <v>841</v>
+      </c>
+      <c r="H92" t="s">
+        <v>896</v>
       </c>
       <c r="P92" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Q92" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
@@ -4626,10 +4730,10 @@
         <v>373</v>
       </c>
       <c r="C96" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="Q96" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
@@ -4644,19 +4748,22 @@
         <v>338</v>
       </c>
       <c r="G97" t="s">
-        <v>849</v>
+        <v>842</v>
+      </c>
+      <c r="H97" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="B98" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C98" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="Q98" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
@@ -4671,7 +4778,10 @@
         <v>252</v>
       </c>
       <c r="G99" t="s">
-        <v>690</v>
+        <v>685</v>
+      </c>
+      <c r="H99" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
@@ -4683,13 +4793,13 @@
         <v>234</v>
       </c>
       <c r="G100" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="H100" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="P100" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
@@ -4701,10 +4811,13 @@
         <v>337</v>
       </c>
       <c r="G101" t="s">
-        <v>693</v>
+        <v>688</v>
+      </c>
+      <c r="H101" t="s">
+        <v>899</v>
       </c>
       <c r="P101" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
@@ -4740,13 +4853,13 @@
         <v>329</v>
       </c>
       <c r="G106" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="H106" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="P106" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
@@ -4758,13 +4871,13 @@
         <v>325</v>
       </c>
       <c r="G107" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="H107" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="P107" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
@@ -4791,10 +4904,10 @@
         <v>291</v>
       </c>
       <c r="G110" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="H110" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
@@ -4803,10 +4916,10 @@
         <v>373</v>
       </c>
       <c r="C111" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="Q111" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
@@ -4821,13 +4934,13 @@
         <v>292</v>
       </c>
       <c r="G112" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>900</v>
       </c>
       <c r="P112" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
@@ -4842,43 +4955,43 @@
         <v>373</v>
       </c>
       <c r="C114" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="Q114" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
       <c r="D115" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F115" t="s">
         <v>324</v>
       </c>
       <c r="L115" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
       <c r="B116" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q116" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
       <c r="D117" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F117" t="s">
         <v>324</v>
       </c>
       <c r="L117" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
@@ -4899,10 +5012,10 @@
         <v>322</v>
       </c>
       <c r="G119" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="H119" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
@@ -4911,10 +5024,10 @@
         <v>373</v>
       </c>
       <c r="C120" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="Q120" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
@@ -4926,13 +5039,13 @@
         <v>323</v>
       </c>
       <c r="G121" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="H121" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="P121" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
@@ -4953,10 +5066,10 @@
         <v>326</v>
       </c>
       <c r="G123" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H123" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
@@ -4965,31 +5078,31 @@
         <v>373</v>
       </c>
       <c r="C124" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="D125" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F125" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="L125" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
       <c r="D126" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F126" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="L126" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
@@ -5019,13 +5132,13 @@
         <v>330</v>
       </c>
       <c r="G130" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="H130" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="P130" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
@@ -5040,10 +5153,10 @@
         <v>53</v>
       </c>
       <c r="G131" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H131" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
@@ -5067,22 +5180,22 @@
         <v>288</v>
       </c>
       <c r="G134" t="s">
+        <v>422</v>
+      </c>
+      <c r="H134" t="s">
         <v>423</v>
       </c>
-      <c r="H134" t="s">
+      <c r="I134" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="I134" s="3" t="s">
+      <c r="J134" t="s">
         <v>425</v>
       </c>
-      <c r="J134" t="s">
+      <c r="K134" t="s">
         <v>426</v>
       </c>
-      <c r="K134" t="s">
+      <c r="P134" t="s">
         <v>427</v>
-      </c>
-      <c r="P134" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
@@ -5104,47 +5217,47 @@
         <v>373</v>
       </c>
       <c r="C136" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I136" s="3"/>
       <c r="Q136" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
       <c r="D137" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F137" t="s">
         <v>340</v>
       </c>
       <c r="I137" s="3"/>
       <c r="L137" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
       <c r="B138" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I138" s="3"/>
       <c r="Q138" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
       <c r="D139" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F139" t="s">
         <v>340</v>
       </c>
       <c r="I139" s="3"/>
       <c r="L139" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
@@ -5163,22 +5276,22 @@
         <v>289</v>
       </c>
       <c r="G141" t="s">
+        <v>435</v>
+      </c>
+      <c r="H141" t="s">
         <v>436</v>
       </c>
-      <c r="H141" t="s">
+      <c r="I141" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="I141" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="J141" t="s">
+        <v>425</v>
+      </c>
+      <c r="K141" t="s">
         <v>426</v>
       </c>
-      <c r="K141" t="s">
+      <c r="P141" t="s">
         <v>427</v>
-      </c>
-      <c r="P141" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
@@ -5200,47 +5313,47 @@
         <v>373</v>
       </c>
       <c r="C143" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I143" s="3"/>
       <c r="Q143" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
       <c r="D144" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F144" t="s">
         <v>342</v>
       </c>
       <c r="I144" s="3"/>
       <c r="L144" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I145" s="3"/>
       <c r="Q145" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="D146" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F146" t="s">
         <v>342</v>
       </c>
       <c r="I146" s="3"/>
       <c r="L146" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
@@ -5256,10 +5369,10 @@
         <v>373</v>
       </c>
       <c r="C148" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="Q148" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
@@ -5271,22 +5384,22 @@
         <v>290</v>
       </c>
       <c r="G149" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="H149" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="J149" t="s">
+        <v>425</v>
+      </c>
+      <c r="K149" t="s">
         <v>426</v>
       </c>
-      <c r="K149" t="s">
+      <c r="P149" t="s">
         <v>427</v>
-      </c>
-      <c r="P149" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
@@ -5308,47 +5421,47 @@
         <v>373</v>
       </c>
       <c r="C151" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="I151" s="3"/>
       <c r="Q151" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
       <c r="D152" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F152" t="s">
         <v>341</v>
       </c>
       <c r="I152" s="3"/>
       <c r="L152" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
       <c r="B153" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I153" s="3"/>
       <c r="Q153" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
       <c r="D154" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F154" t="s">
         <v>341</v>
       </c>
       <c r="I154" s="3"/>
       <c r="L154" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
@@ -5386,13 +5499,13 @@
         <v>331</v>
       </c>
       <c r="G159" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="H159" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="P159" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
@@ -5404,13 +5517,13 @@
         <v>343</v>
       </c>
       <c r="G160" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="H160" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="P160" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
@@ -5422,13 +5535,13 @@
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
       <c r="B162" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C162" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="Q162" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
@@ -5451,13 +5564,13 @@
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
       <c r="D164" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G164" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H164" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
@@ -5472,10 +5585,10 @@
         <v>314</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -5492,7 +5605,7 @@
         <v>373</v>
       </c>
       <c r="C166" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -5507,7 +5620,7 @@
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
       <c r="Q166" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="167" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5519,10 +5632,10 @@
         <v>318</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -5532,7 +5645,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
       <c r="P167" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="168" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5544,10 +5657,10 @@
         <v>316</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -5557,7 +5670,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
       <c r="P168" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="169" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5584,7 +5697,7 @@
         <v>373</v>
       </c>
       <c r="C170" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -5601,10 +5714,10 @@
     <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="D171" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F171" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
@@ -5612,7 +5725,7 @@
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
@@ -5622,7 +5735,7 @@
     <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
       <c r="D172" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>315</v>
@@ -5633,7 +5746,7 @@
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
       <c r="L172" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
@@ -5677,10 +5790,10 @@
     <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
       <c r="B175" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C175" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -5694,7 +5807,7 @@
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.25">
@@ -5717,14 +5830,14 @@
     <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="12"/>
       <c r="D177" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -5747,10 +5860,10 @@
         <v>313</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -5767,7 +5880,7 @@
         <v>373</v>
       </c>
       <c r="C179" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -5782,7 +5895,7 @@
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
       <c r="Q179" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.25">
@@ -5794,10 +5907,10 @@
         <v>307</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
@@ -5807,7 +5920,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
       <c r="P180" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.25">
@@ -5819,10 +5932,10 @@
         <v>305</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
@@ -5832,7 +5945,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
       <c r="P181" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
@@ -5859,7 +5972,7 @@
         <v>373</v>
       </c>
       <c r="C183" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -5876,10 +5989,10 @@
     <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="12"/>
       <c r="D184" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F184" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -5887,7 +6000,7 @@
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
       <c r="L184" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
@@ -5897,7 +6010,7 @@
     <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
       <c r="D185" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>317</v>
@@ -5908,7 +6021,7 @@
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
@@ -5940,7 +6053,7 @@
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B188" t="s">
         <v>17</v>
@@ -5958,10 +6071,10 @@
         <v>398</v>
       </c>
       <c r="G189" t="s">
+        <v>442</v>
+      </c>
+      <c r="H189" t="s">
         <v>443</v>
-      </c>
-      <c r="H189" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.25">
@@ -5970,16 +6083,16 @@
         <v>373</v>
       </c>
       <c r="C190" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="Q190" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="12"/>
       <c r="D191" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F191" t="s">
         <v>314</v>
@@ -5991,10 +6104,10 @@
     <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="12"/>
       <c r="D192" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F192" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
@@ -6002,7 +6115,7 @@
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
@@ -6021,10 +6134,10 @@
         <v>373</v>
       </c>
       <c r="C194" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="Q194" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.25">
@@ -6036,13 +6149,13 @@
         <v>28</v>
       </c>
       <c r="F195" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="G195" t="s">
+        <v>445</v>
+      </c>
+      <c r="H195" t="s">
         <v>446</v>
-      </c>
-      <c r="H195" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.25">
@@ -6063,10 +6176,10 @@
         <v>373</v>
       </c>
       <c r="C198" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="Q198" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.25">
@@ -6078,13 +6191,13 @@
     <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="12"/>
       <c r="D200" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F200" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="L200" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.25">
@@ -6096,19 +6209,19 @@
         <v>268</v>
       </c>
       <c r="G201" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H201" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="H201" s="1" t="s">
+      <c r="I201" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I201" s="1" t="s">
+      <c r="J201" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="J201" s="1" t="s">
+      <c r="K201" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="K201" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
@@ -6146,7 +6259,7 @@
         <v>373</v>
       </c>
       <c r="C203" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
@@ -6160,13 +6273,13 @@
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
       <c r="Q203" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="12"/>
       <c r="D204" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>344</v>
@@ -6177,7 +6290,7 @@
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
       <c r="L204" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
@@ -6188,7 +6301,7 @@
     <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
       <c r="B205" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
@@ -6202,13 +6315,13 @@
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
       <c r="Q205" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="12"/>
       <c r="D206" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>344</v>
@@ -6219,7 +6332,7 @@
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
@@ -6254,19 +6367,19 @@
         <v>269</v>
       </c>
       <c r="G208" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H208" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="H208" s="1" t="s">
+      <c r="I208" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="I208" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="J208" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K208" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="K208" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
@@ -6293,16 +6406,16 @@
         <v>373</v>
       </c>
       <c r="C210" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q210" t="s">
         <v>461</v>
-      </c>
-      <c r="Q210" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
       <c r="D211" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>269</v>
@@ -6312,7 +6425,7 @@
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
@@ -6343,7 +6456,7 @@
         <v>373</v>
       </c>
       <c r="C213" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
@@ -6356,13 +6469,13 @@
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
       <c r="Q213" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
       <c r="D214" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>332</v>
@@ -6372,7 +6485,7 @@
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
@@ -6383,7 +6496,7 @@
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="12"/>
       <c r="B215" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
@@ -6396,13 +6509,13 @@
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
       <c r="Q215" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="12"/>
       <c r="D216" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>332</v>
@@ -6412,7 +6525,7 @@
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
@@ -6470,19 +6583,19 @@
         <v>270</v>
       </c>
       <c r="G220" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H220" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="H220" s="1" t="s">
+      <c r="I220" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="I220" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="J220" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K220" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="K220" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
@@ -6520,7 +6633,7 @@
         <v>373</v>
       </c>
       <c r="C222" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
@@ -6534,13 +6647,13 @@
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
       <c r="Q222" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
       <c r="D223" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>352</v>
@@ -6551,7 +6664,7 @@
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
       <c r="L223" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
@@ -6562,7 +6675,7 @@
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="12"/>
       <c r="B224" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
@@ -6576,13 +6689,13 @@
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
       <c r="Q224" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="12"/>
       <c r="D225" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>352</v>
@@ -6593,7 +6706,7 @@
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
       <c r="L225" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
@@ -6628,19 +6741,19 @@
         <v>271</v>
       </c>
       <c r="G227" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H227" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="H227" s="1" t="s">
+      <c r="I227" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="I227" s="1" t="s">
+      <c r="J227" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="J227" s="1" t="s">
+      <c r="K227" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="K227" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
@@ -6667,16 +6780,16 @@
         <v>373</v>
       </c>
       <c r="C229" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q229" t="s">
         <v>477</v>
-      </c>
-      <c r="Q229" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="12"/>
       <c r="D230" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>271</v>
@@ -6686,7 +6799,7 @@
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
@@ -6717,7 +6830,7 @@
         <v>373</v>
       </c>
       <c r="C232" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
@@ -6730,13 +6843,13 @@
       <c r="O232" s="1"/>
       <c r="P232" s="1"/>
       <c r="Q232" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="12"/>
       <c r="D233" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>346</v>
@@ -6746,7 +6859,7 @@
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
       <c r="L233" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
@@ -6757,7 +6870,7 @@
     <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="12"/>
       <c r="B234" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
@@ -6770,13 +6883,13 @@
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
       <c r="Q234" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="12"/>
       <c r="D235" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>346</v>
@@ -6786,7 +6899,7 @@
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
@@ -6821,19 +6934,19 @@
         <v>272</v>
       </c>
       <c r="G237" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H237" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="H237" s="1" t="s">
+      <c r="I237" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="I237" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="J237" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K237" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="K237" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
@@ -6859,16 +6972,16 @@
         <v>373</v>
       </c>
       <c r="C239" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q239" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="12"/>
       <c r="D240" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>272</v>
@@ -6878,7 +6991,7 @@
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
       <c r="L240" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
@@ -6909,7 +7022,7 @@
         <v>373</v>
       </c>
       <c r="C242" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
@@ -6922,13 +7035,13 @@
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
       <c r="Q242" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="12"/>
       <c r="D243" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>349</v>
@@ -6938,7 +7051,7 @@
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
       <c r="L243" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
@@ -6949,7 +7062,7 @@
     <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="12"/>
       <c r="B244" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
@@ -6962,13 +7075,13 @@
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
       <c r="Q244" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="12"/>
       <c r="D245" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>349</v>
@@ -6978,7 +7091,7 @@
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
       <c r="L245" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
@@ -7013,19 +7126,19 @@
         <v>273</v>
       </c>
       <c r="G247" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H247" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H247" s="1" t="s">
+      <c r="I247" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="I247" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="J247" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K247" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="K247" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
@@ -7051,16 +7164,16 @@
         <v>373</v>
       </c>
       <c r="C249" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Q249" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="12"/>
       <c r="D250" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>273</v>
@@ -7070,7 +7183,7 @@
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
       <c r="L250" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
@@ -7101,7 +7214,7 @@
         <v>373</v>
       </c>
       <c r="C252" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
@@ -7114,13 +7227,13 @@
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
       <c r="Q252" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
       <c r="D253" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>334</v>
@@ -7130,7 +7243,7 @@
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
       <c r="L253" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
@@ -7141,7 +7254,7 @@
     <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="12"/>
       <c r="B254" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
@@ -7154,13 +7267,13 @@
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
       <c r="Q254" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="12"/>
       <c r="D255" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>334</v>
@@ -7170,7 +7283,7 @@
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
       <c r="L255" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
@@ -7217,19 +7330,19 @@
         <v>274</v>
       </c>
       <c r="G259" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H259" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="H259" s="1" t="s">
+      <c r="I259" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="I259" s="1" t="s">
+      <c r="J259" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="J259" s="1" t="s">
+      <c r="K259" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="K259" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="L259" s="1"/>
       <c r="M259" s="1"/>
@@ -7267,7 +7380,7 @@
         <v>373</v>
       </c>
       <c r="C261" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
@@ -7281,13 +7394,13 @@
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
       <c r="Q261" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="12"/>
       <c r="D262" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>353</v>
@@ -7298,7 +7411,7 @@
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
       <c r="L262" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
@@ -7309,7 +7422,7 @@
     <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" s="12"/>
       <c r="B263" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
@@ -7323,13 +7436,13 @@
       <c r="O263" s="1"/>
       <c r="P263" s="1"/>
       <c r="Q263" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="12"/>
       <c r="D264" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>353</v>
@@ -7340,7 +7453,7 @@
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
       <c r="L264" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
@@ -7375,19 +7488,19 @@
         <v>275</v>
       </c>
       <c r="G266" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="H266" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="H266" s="1" t="s">
+      <c r="I266" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="I266" s="1" t="s">
+      <c r="J266" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="J266" s="1" t="s">
+      <c r="K266" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="K266" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="L266" s="1"/>
       <c r="M266" s="1"/>
@@ -7414,16 +7527,16 @@
         <v>373</v>
       </c>
       <c r="C268" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q268" t="s">
         <v>509</v>
-      </c>
-      <c r="Q268" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="12"/>
       <c r="D269" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>275</v>
@@ -7433,7 +7546,7 @@
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
       <c r="L269" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
@@ -7464,7 +7577,7 @@
         <v>373</v>
       </c>
       <c r="C271" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
@@ -7477,13 +7590,13 @@
       <c r="O271" s="1"/>
       <c r="P271" s="1"/>
       <c r="Q271" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="12"/>
       <c r="D272" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>347</v>
@@ -7493,7 +7606,7 @@
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
       <c r="L272" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
@@ -7504,7 +7617,7 @@
     <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" s="12"/>
       <c r="B273" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
@@ -7517,13 +7630,13 @@
       <c r="O273" s="1"/>
       <c r="P273" s="1"/>
       <c r="Q273" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" s="12"/>
       <c r="D274" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>347</v>
@@ -7533,7 +7646,7 @@
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
       <c r="L274" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
@@ -7568,19 +7681,19 @@
         <v>276</v>
       </c>
       <c r="G276" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H276" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H276" s="1" t="s">
+      <c r="I276" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="I276" s="1" t="s">
+      <c r="J276" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="J276" s="1" t="s">
+      <c r="K276" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="K276" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="L276" s="1"/>
       <c r="M276" s="1"/>
@@ -7606,16 +7719,16 @@
         <v>373</v>
       </c>
       <c r="C278" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Q278" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" s="12"/>
       <c r="D279" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>276</v>
@@ -7625,7 +7738,7 @@
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
       <c r="L279" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
@@ -7656,7 +7769,7 @@
         <v>373</v>
       </c>
       <c r="C281" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
@@ -7669,13 +7782,13 @@
       <c r="O281" s="1"/>
       <c r="P281" s="1"/>
       <c r="Q281" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" s="12"/>
       <c r="D282" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>350</v>
@@ -7685,7 +7798,7 @@
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
       <c r="L282" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
@@ -7696,7 +7809,7 @@
     <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" s="12"/>
       <c r="B283" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
@@ -7709,13 +7822,13 @@
       <c r="O283" s="1"/>
       <c r="P283" s="1"/>
       <c r="Q283" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" s="12"/>
       <c r="D284" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>350</v>
@@ -7725,7 +7838,7 @@
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
       <c r="L284" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
@@ -7760,19 +7873,19 @@
         <v>277</v>
       </c>
       <c r="G286" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H286" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="H286" s="1" t="s">
+      <c r="I286" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="I286" s="1" t="s">
+      <c r="J286" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="J286" s="1" t="s">
+      <c r="K286" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="K286" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="L286" s="1"/>
       <c r="M286" s="1"/>
@@ -7798,16 +7911,16 @@
         <v>373</v>
       </c>
       <c r="C288" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q288" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" s="12"/>
       <c r="D289" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>277</v>
@@ -7817,7 +7930,7 @@
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
       <c r="L289" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
@@ -7848,7 +7961,7 @@
         <v>373</v>
       </c>
       <c r="C291" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
@@ -7861,13 +7974,13 @@
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
       <c r="Q291" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" s="12"/>
       <c r="D292" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>335</v>
@@ -7877,7 +7990,7 @@
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
       <c r="L292" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
@@ -7888,7 +8001,7 @@
     <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" s="12"/>
       <c r="B293" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
@@ -7901,13 +8014,13 @@
       <c r="O293" s="1"/>
       <c r="P293" s="1"/>
       <c r="Q293" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" s="12"/>
       <c r="D294" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>335</v>
@@ -7917,7 +8030,7 @@
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
       <c r="L294" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
@@ -7964,19 +8077,19 @@
         <v>278</v>
       </c>
       <c r="G298" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H298" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="H298" s="1" t="s">
+      <c r="I298" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="I298" s="1" t="s">
+      <c r="J298" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="J298" s="1" t="s">
+      <c r="K298" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="K298" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="L298" s="1"/>
       <c r="M298" s="1"/>
@@ -8014,7 +8127,7 @@
         <v>373</v>
       </c>
       <c r="C300" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
@@ -8028,13 +8141,13 @@
       <c r="O300" s="1"/>
       <c r="P300" s="1"/>
       <c r="Q300" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" s="12"/>
       <c r="D301" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>354</v>
@@ -8045,7 +8158,7 @@
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
       <c r="L301" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
@@ -8056,7 +8169,7 @@
     <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" s="12"/>
       <c r="B302" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
@@ -8070,13 +8183,13 @@
       <c r="O302" s="1"/>
       <c r="P302" s="1"/>
       <c r="Q302" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303" s="12"/>
       <c r="D303" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>354</v>
@@ -8087,7 +8200,7 @@
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
       <c r="L303" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
@@ -8122,19 +8235,19 @@
         <v>279</v>
       </c>
       <c r="G305" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H305" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="H305" s="1" t="s">
+      <c r="I305" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="I305" s="1" t="s">
+      <c r="J305" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="J305" s="1" t="s">
+      <c r="K305" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="K305" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="L305" s="1"/>
       <c r="M305" s="1"/>
@@ -8161,16 +8274,16 @@
         <v>373</v>
       </c>
       <c r="C307" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q307" t="s">
         <v>545</v>
-      </c>
-      <c r="Q307" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="308" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A308" s="12"/>
       <c r="D308" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>279</v>
@@ -8180,7 +8293,7 @@
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
       <c r="L308" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
@@ -8211,7 +8324,7 @@
         <v>373</v>
       </c>
       <c r="C310" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
@@ -8224,13 +8337,13 @@
       <c r="O310" s="1"/>
       <c r="P310" s="1"/>
       <c r="Q310" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="311" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A311" s="12"/>
       <c r="D311" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>348</v>
@@ -8240,7 +8353,7 @@
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
       <c r="L311" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
@@ -8251,7 +8364,7 @@
     <row r="312" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A312" s="12"/>
       <c r="B312" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
@@ -8264,13 +8377,13 @@
       <c r="O312" s="1"/>
       <c r="P312" s="1"/>
       <c r="Q312" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="313" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A313" s="12"/>
       <c r="D313" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>348</v>
@@ -8280,7 +8393,7 @@
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
       <c r="L313" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
@@ -8315,19 +8428,19 @@
         <v>280</v>
       </c>
       <c r="G315" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H315" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="H315" s="1" t="s">
+      <c r="I315" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I315" s="1" t="s">
+      <c r="J315" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="J315" s="1" t="s">
+      <c r="K315" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="K315" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="L315" s="1"/>
       <c r="M315" s="1"/>
@@ -8353,16 +8466,16 @@
         <v>373</v>
       </c>
       <c r="C317" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Q317" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="318" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A318" s="12"/>
       <c r="D318" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>280</v>
@@ -8372,7 +8485,7 @@
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
       <c r="L318" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
@@ -8403,7 +8516,7 @@
         <v>373</v>
       </c>
       <c r="C320" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
@@ -8416,13 +8529,13 @@
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
       <c r="Q320" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321" s="12"/>
       <c r="D321" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>351</v>
@@ -8432,7 +8545,7 @@
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
       <c r="L321" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
@@ -8443,7 +8556,7 @@
     <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322" s="12"/>
       <c r="B322" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
@@ -8456,13 +8569,13 @@
       <c r="O322" s="1"/>
       <c r="P322" s="1"/>
       <c r="Q322" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323" s="12"/>
       <c r="D323" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>351</v>
@@ -8472,7 +8585,7 @@
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
       <c r="L323" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
@@ -8507,19 +8620,19 @@
         <v>281</v>
       </c>
       <c r="G325" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="H325" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="H325" s="1" t="s">
+      <c r="I325" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="I325" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="J325" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K325" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="K325" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="L325" s="1"/>
       <c r="M325" s="1"/>
@@ -8545,16 +8658,16 @@
         <v>373</v>
       </c>
       <c r="C327" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Q327" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328" s="12"/>
       <c r="D328" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>281</v>
@@ -8564,7 +8677,7 @@
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
       <c r="L328" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
@@ -8595,7 +8708,7 @@
         <v>373</v>
       </c>
       <c r="C330" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
@@ -8608,13 +8721,13 @@
       <c r="O330" s="1"/>
       <c r="P330" s="1"/>
       <c r="Q330" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331" s="12"/>
       <c r="D331" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>355</v>
@@ -8624,7 +8737,7 @@
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
       <c r="L331" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
@@ -8635,7 +8748,7 @@
     <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332" s="12"/>
       <c r="B332" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
@@ -8648,13 +8761,13 @@
       <c r="O332" s="1"/>
       <c r="P332" s="1"/>
       <c r="Q332" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333" s="12"/>
       <c r="D333" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>355</v>
@@ -8664,7 +8777,7 @@
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
       <c r="L333" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
@@ -8711,19 +8824,19 @@
         <v>282</v>
       </c>
       <c r="G337" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I337" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="H337" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="I337" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="J337" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K337" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="K337" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="L337" s="1"/>
       <c r="M337" s="1"/>
@@ -8761,7 +8874,7 @@
         <v>373</v>
       </c>
       <c r="C339" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
@@ -8775,13 +8888,13 @@
       <c r="O339" s="1"/>
       <c r="P339" s="1"/>
       <c r="Q339" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340" s="12"/>
       <c r="D340" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>356</v>
@@ -8792,7 +8905,7 @@
       <c r="J340" s="1"/>
       <c r="K340" s="1"/>
       <c r="L340" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
@@ -8803,7 +8916,7 @@
     <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341" s="12"/>
       <c r="B341" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
@@ -8817,13 +8930,13 @@
       <c r="O341" s="1"/>
       <c r="P341" s="1"/>
       <c r="Q341" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342" s="12"/>
       <c r="D342" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>356</v>
@@ -8834,7 +8947,7 @@
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
       <c r="L342" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
@@ -8869,19 +8982,19 @@
         <v>283</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>573</v>
+        <v>902</v>
       </c>
       <c r="I344" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="J344" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K344" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="K344" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="L344" s="1"/>
       <c r="M344" s="1"/>
@@ -8907,16 +9020,16 @@
         <v>373</v>
       </c>
       <c r="C346" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="Q346" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347" s="12"/>
       <c r="D347" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>281</v>
@@ -8926,7 +9039,7 @@
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
       <c r="L347" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
@@ -8957,7 +9070,7 @@
         <v>373</v>
       </c>
       <c r="C349" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
@@ -8970,13 +9083,13 @@
       <c r="O349" s="1"/>
       <c r="P349" s="1"/>
       <c r="Q349" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350" s="12"/>
       <c r="D350" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>345</v>
@@ -8986,7 +9099,7 @@
       <c r="J350" s="1"/>
       <c r="K350" s="1"/>
       <c r="L350" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M350" s="1"/>
       <c r="N350" s="1"/>
@@ -8997,7 +9110,7 @@
     <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351" s="12"/>
       <c r="B351" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
@@ -9010,13 +9123,13 @@
       <c r="O351" s="1"/>
       <c r="P351" s="1"/>
       <c r="Q351" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352" s="12"/>
       <c r="D352" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>345</v>
@@ -9026,7 +9139,7 @@
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
       <c r="L352" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
@@ -9081,10 +9194,10 @@
         <v>373</v>
       </c>
       <c r="C356" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="Q356" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="357" spans="1:17" x14ac:dyDescent="0.25">
@@ -9098,13 +9211,13 @@
     <row r="358" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A358" s="12"/>
       <c r="D358" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F358" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="L358" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
     </row>
     <row r="359" spans="1:17" x14ac:dyDescent="0.25">
@@ -9121,6 +9234,9 @@
       <c r="G359" t="s">
         <v>189</v>
       </c>
+      <c r="H359" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="360" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A360" s="12"/>
@@ -9134,7 +9250,10 @@
         <v>332</v>
       </c>
       <c r="G360" t="s">
-        <v>580</v>
+        <v>577</v>
+      </c>
+      <c r="H360" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="361" spans="1:17" x14ac:dyDescent="0.25">
@@ -9161,7 +9280,10 @@
         <v>352</v>
       </c>
       <c r="G363" t="s">
-        <v>581</v>
+        <v>578</v>
+      </c>
+      <c r="H363" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="364" spans="1:17" x14ac:dyDescent="0.25">
@@ -9176,7 +9298,10 @@
         <v>353</v>
       </c>
       <c r="G364" t="s">
-        <v>582</v>
+        <v>579</v>
+      </c>
+      <c r="H364" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="365" spans="1:17" x14ac:dyDescent="0.25">
@@ -9191,7 +9316,10 @@
         <v>354</v>
       </c>
       <c r="G365" t="s">
-        <v>583</v>
+        <v>580</v>
+      </c>
+      <c r="H365" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="366" spans="1:17" x14ac:dyDescent="0.25">
@@ -9218,10 +9346,13 @@
         <v>346</v>
       </c>
       <c r="G368" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="H368" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="12"/>
       <c r="D369" t="s">
         <v>9</v>
@@ -9233,10 +9364,13 @@
         <v>347</v>
       </c>
       <c r="G369" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+      <c r="H369" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="12"/>
       <c r="D370" t="s">
         <v>9</v>
@@ -9248,22 +9382,25 @@
         <v>348</v>
       </c>
       <c r="G370" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+      <c r="H370" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="12"/>
       <c r="B371" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="12"/>
       <c r="B372" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="12"/>
       <c r="D373" t="s">
         <v>9</v>
@@ -9275,10 +9412,13 @@
         <v>349</v>
       </c>
       <c r="G373" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+      <c r="H373" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="12"/>
       <c r="D374" t="s">
         <v>9</v>
@@ -9290,10 +9430,13 @@
         <v>350</v>
       </c>
       <c r="G374" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+      <c r="H374" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="12"/>
       <c r="D375" t="s">
         <v>9</v>
@@ -9305,22 +9448,25 @@
         <v>351</v>
       </c>
       <c r="G375" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="H375" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="12"/>
       <c r="B376" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="12"/>
       <c r="B377" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="12"/>
       <c r="D378" t="s">
         <v>9</v>
@@ -9332,10 +9478,13 @@
         <v>334</v>
       </c>
       <c r="G378" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="H378" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="12"/>
       <c r="D379" t="s">
         <v>9</v>
@@ -9347,22 +9496,25 @@
         <v>335</v>
       </c>
       <c r="G379" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+      <c r="H379" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="12"/>
       <c r="B380" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="12"/>
       <c r="B381" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="12"/>
       <c r="D382" t="s">
         <v>9</v>
@@ -9374,10 +9526,13 @@
         <v>355</v>
       </c>
       <c r="G382" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+      <c r="H382" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="12"/>
       <c r="D383" t="s">
         <v>9</v>
@@ -9389,10 +9544,13 @@
         <v>356</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+      <c r="H383" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="12"/>
       <c r="D384" t="s">
         <v>9</v>
@@ -9404,7 +9562,10 @@
         <v>345</v>
       </c>
       <c r="G384" t="s">
-        <v>593</v>
+        <v>905</v>
+      </c>
+      <c r="H384" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="385" spans="1:18" x14ac:dyDescent="0.25">
@@ -9450,10 +9611,10 @@
         <v>311</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>737</v>
+        <v>907</v>
       </c>
       <c r="H388" s="1" t="s">
-        <v>738</v>
+        <v>908</v>
       </c>
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
@@ -9476,10 +9637,10 @@
         <v>312</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H389" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
@@ -9493,18 +9654,18 @@
     <row r="390" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A390" s="12"/>
       <c r="D390" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
       <c r="K390" s="1"/>
-      <c r="L390" s="28">
-        <v>1804</v>
+      <c r="L390" s="27">
+        <v>1905</v>
       </c>
       <c r="M390" s="1"/>
       <c r="N390" s="1"/>
@@ -9517,7 +9678,7 @@
         <v>373</v>
       </c>
       <c r="C391" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
@@ -9534,10 +9695,10 @@
     <row r="392" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A392" s="12"/>
       <c r="D392" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
@@ -9545,7 +9706,7 @@
       <c r="J392" s="1"/>
       <c r="K392" s="1"/>
       <c r="L392" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="M392" s="1"/>
       <c r="N392" s="1"/>
@@ -9588,7 +9749,10 @@
         <v>407</v>
       </c>
       <c r="G396" t="s">
-        <v>419</v>
+        <v>909</v>
+      </c>
+      <c r="H396" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="397" spans="1:18" x14ac:dyDescent="0.25">
@@ -9613,15 +9777,15 @@
       <c r="Q398" s="1"/>
       <c r="R398" s="1"/>
     </row>
-    <row r="399" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="D399" s="29" t="s">
-        <v>838</v>
+    <row r="399" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D399" s="28" t="s">
+        <v>831</v>
       </c>
       <c r="E399" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
@@ -9635,15 +9799,15 @@
       <c r="Q399" s="1"/>
       <c r="R399" s="1"/>
     </row>
-    <row r="400" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="D400" s="29" t="s">
-        <v>840</v>
+    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D400" s="28" t="s">
+        <v>833</v>
       </c>
       <c r="E400" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
@@ -9762,7 +9926,7 @@
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -9983,7 +10147,9 @@
       <c r="C15" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -9995,7 +10161,9 @@
       <c r="C16" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -10528,7 +10696,9 @@
       <c r="C53" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
@@ -10540,7 +10710,9 @@
       <c r="C54" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
@@ -10580,7 +10752,9 @@
       <c r="C57" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
@@ -10662,7 +10836,9 @@
       <c r="C63" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D63" s="5"/>
+      <c r="D63" s="5" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
@@ -10674,7 +10850,9 @@
       <c r="C64" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
@@ -10702,7 +10880,9 @@
       <c r="C66" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D66" s="7"/>
+      <c r="D66" s="7" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -10994,7 +11174,9 @@
       <c r="C87" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="7"/>
+      <c r="D87" s="7" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
@@ -11006,7 +11188,9 @@
       <c r="C88" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D88" s="7"/>
+      <c r="D88" s="7" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
@@ -11046,7 +11230,9 @@
       <c r="C91" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D91" s="5"/>
+      <c r="D91" s="5" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
@@ -11058,7 +11244,9 @@
       <c r="C92" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D92" s="5"/>
+      <c r="D92" s="5" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
@@ -11098,7 +11286,9 @@
       <c r="C95" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D95" s="7"/>
+      <c r="D95" s="7" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
@@ -11110,7 +11300,9 @@
       <c r="C96" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D96" s="7"/>
+      <c r="D96" s="7" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
@@ -11150,7 +11342,9 @@
       <c r="C99" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D99" s="5"/>
+      <c r="D99" s="5" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -11162,7 +11356,9 @@
       <c r="C100" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D100" s="5"/>
+      <c r="D100" s="5" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
@@ -11202,7 +11398,9 @@
       <c r="C103" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D103" s="7"/>
+      <c r="D103" s="7" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
@@ -11214,11 +11412,13 @@
       <c r="C104" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D104" s="7"/>
+      <c r="D104" s="7" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
@@ -12246,7 +12446,9 @@
       <c r="C168" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D168" s="7"/>
+      <c r="D168" s="7" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
@@ -12258,20 +12460,22 @@
       <c r="C169" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D169" s="7"/>
+      <c r="D169" s="7" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="24" t="s">
+      <c r="A170" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B170" s="24" t="str">
+      <c r="B170" s="5" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
-      <c r="C170" s="24" t="s">
+      <c r="C170" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D170" s="24" t="s">
+      <c r="D170" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -12286,7 +12490,9 @@
       <c r="C171" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="D171" s="7"/>
+      <c r="D171" s="7" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
@@ -12299,7 +12505,9 @@
       <c r="C172" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="D172" s="7"/>
+      <c r="D172" s="7" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
@@ -12312,7 +12520,9 @@
       <c r="C173" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="D173" s="7"/>
+      <c r="D173" s="7" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
@@ -12325,7 +12535,9 @@
       <c r="C174" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D174" s="5"/>
+      <c r="D174" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
@@ -12338,7 +12550,9 @@
       <c r="C175" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D175" s="5"/>
+      <c r="D175" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
@@ -12351,7 +12565,9 @@
       <c r="C176" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D176" s="5"/>
+      <c r="D176" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
@@ -12364,7 +12580,9 @@
       <c r="C177" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D177" s="5"/>
+      <c r="D177" s="5" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
@@ -12377,7 +12595,9 @@
       <c r="C178" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D178" s="5"/>
+      <c r="D178" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
@@ -12390,7 +12610,9 @@
       <c r="C179" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D179" s="5"/>
+      <c r="D179" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
@@ -12403,7 +12625,9 @@
       <c r="C180" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D180" s="5"/>
+      <c r="D180" s="5" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
@@ -12416,7 +12640,9 @@
       <c r="C181" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D181" s="5"/>
+      <c r="D181" s="5" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
@@ -12429,7 +12655,9 @@
       <c r="C182" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D182" s="5"/>
+      <c r="D182" s="5" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
@@ -12442,7 +12670,9 @@
       <c r="C183" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D183" s="5"/>
+      <c r="D183" s="5" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
@@ -12455,7 +12685,9 @@
       <c r="C184" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="D184" s="7"/>
+      <c r="D184" s="7" t="s">
+        <v>880</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
@@ -12468,7 +12700,9 @@
       <c r="C185" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D185" s="5"/>
+      <c r="D185" s="5" t="s">
+        <v>881</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
@@ -12481,7 +12715,9 @@
       <c r="C186" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D186" s="5"/>
+      <c r="D186" s="5" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
@@ -12494,7 +12730,9 @@
       <c r="C187" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D187" s="5"/>
+      <c r="D187" s="5" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
@@ -12507,7 +12745,9 @@
       <c r="C188" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D188" s="5"/>
+      <c r="D188" s="5" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
@@ -12519,20 +12759,22 @@
       <c r="C189" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D189" s="7"/>
+      <c r="D189" s="7" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -12540,13 +12782,13 @@
         <v>392</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -12554,13 +12796,13 @@
         <v>392</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -12568,13 +12810,13 @@
         <v>392</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -12582,13 +12824,13 @@
         <v>392</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -12596,13 +12838,13 @@
         <v>392</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -12610,13 +12852,13 @@
         <v>392</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -12624,13 +12866,13 @@
         <v>392</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -12638,13 +12880,13 @@
         <v>392</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -12652,13 +12894,13 @@
         <v>392</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -12666,13 +12908,13 @@
         <v>392</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -12680,13 +12922,13 @@
         <v>392</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -12694,13 +12936,13 @@
         <v>392</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -12714,7 +12956,7 @@
         <v>405</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -12728,7 +12970,9 @@
       <c r="C204" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="D204" s="7"/>
+      <c r="D204" s="7" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
@@ -12741,7 +12985,9 @@
       <c r="C205" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D205" s="5"/>
+      <c r="D205" s="5" t="s">
+        <v>881</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
@@ -12754,7 +13000,9 @@
       <c r="C206" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D206" s="5"/>
+      <c r="D206" s="5" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
@@ -12767,7 +13015,9 @@
       <c r="C207" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D207" s="5"/>
+      <c r="D207" s="5" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
@@ -12780,50 +13030,58 @@
       <c r="C208" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D208" s="5"/>
+      <c r="D208" s="5" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B209" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="D209" s="7"/>
+        <v>745</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B210" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="D210" s="7"/>
+        <v>746</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B211" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>754</v>
-      </c>
-      <c r="D211" s="7"/>
+        <v>747</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B212" s="7" t="str">
         <f>"99"</f>
@@ -12838,119 +13096,119 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>61</v>
@@ -12963,33 +13221,37 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="30" t="s">
-        <v>768</v>
+      <c r="A222" s="29" t="s">
+        <v>761</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>231</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="D222" s="5"/>
+        <v>762</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>889</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B223" s="7" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="D223" s="7"/>
+        <v>746</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B224" s="7" t="str">
         <f>"99999"</f>
@@ -13004,212 +13266,212 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B225" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
-      <c r="C225" s="33" t="s">
-        <v>853</v>
-      </c>
-      <c r="D225" s="33" t="s">
-        <v>853</v>
+      <c r="C225" s="32" t="s">
+        <v>846</v>
+      </c>
+      <c r="D225" s="32" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B226" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C226" s="34" t="s">
-        <v>854</v>
-      </c>
-      <c r="D226" s="34" t="s">
-        <v>854</v>
+      <c r="C226" s="33" t="s">
+        <v>847</v>
+      </c>
+      <c r="D226" s="33" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B227" s="5" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
-      <c r="C227" s="34" t="s">
-        <v>855</v>
-      </c>
-      <c r="D227" s="34" t="s">
-        <v>855</v>
+      <c r="C227" s="33" t="s">
+        <v>848</v>
+      </c>
+      <c r="D227" s="33" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B228" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
-      <c r="C228" s="34" t="s">
-        <v>856</v>
-      </c>
-      <c r="D228" s="34" t="s">
-        <v>856</v>
+      <c r="C228" s="33" t="s">
+        <v>849</v>
+      </c>
+      <c r="D228" s="33" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B229" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C229" s="34" t="s">
-        <v>857</v>
-      </c>
-      <c r="D229" s="34" t="s">
-        <v>857</v>
+      <c r="C229" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="D229" s="33" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B230" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
-      <c r="C230" s="34" t="s">
-        <v>858</v>
-      </c>
-      <c r="D230" s="34" t="s">
-        <v>858</v>
+      <c r="C230" s="33" t="s">
+        <v>851</v>
+      </c>
+      <c r="D230" s="33" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B231" s="5" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
-      <c r="C231" s="34" t="s">
-        <v>859</v>
-      </c>
-      <c r="D231" s="34" t="s">
-        <v>859</v>
+      <c r="C231" s="33" t="s">
+        <v>852</v>
+      </c>
+      <c r="D231" s="33" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B232" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C232" s="34" t="s">
-        <v>860</v>
-      </c>
-      <c r="D232" s="34" t="s">
-        <v>860</v>
+      <c r="C232" s="33" t="s">
+        <v>853</v>
+      </c>
+      <c r="D232" s="33" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B233" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C233" s="34" t="s">
-        <v>861</v>
-      </c>
-      <c r="D233" s="34" t="s">
-        <v>861</v>
+      <c r="C233" s="33" t="s">
+        <v>854</v>
+      </c>
+      <c r="D233" s="33" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B234" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C234" s="34" t="s">
-        <v>862</v>
-      </c>
-      <c r="D234" s="34" t="s">
-        <v>862</v>
+      <c r="C234" s="33" t="s">
+        <v>855</v>
+      </c>
+      <c r="D234" s="33" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B235" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C235" s="34" t="s">
-        <v>863</v>
-      </c>
-      <c r="D235" s="34" t="s">
-        <v>863</v>
+      <c r="C235" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="D235" s="33" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B236" s="5" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
-      <c r="C236" s="34" t="s">
-        <v>864</v>
-      </c>
-      <c r="D236" s="34" t="s">
-        <v>864</v>
+      <c r="C236" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="D236" s="33" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B237" s="5" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
-      <c r="C237" s="34" t="s">
-        <v>865</v>
-      </c>
-      <c r="D237" s="34" t="s">
-        <v>865</v>
+      <c r="C237" s="33" t="s">
+        <v>858</v>
+      </c>
+      <c r="D237" s="33" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B238" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C238" s="34" t="s">
-        <v>866</v>
-      </c>
-      <c r="D238" s="34" t="s">
-        <v>866</v>
+      <c r="C238" s="33" t="s">
+        <v>859</v>
+      </c>
+      <c r="D238" s="33" t="s">
+        <v>859</v>
       </c>
     </row>
   </sheetData>
@@ -13290,26 +13552,26 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>838</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>843</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="29" t="s">
-        <v>844</v>
+      <c r="A2" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="28" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>840</v>
+      <c r="A3" s="28" t="s">
+        <v>833</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13351,7 +13613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A109" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -13391,7 +13653,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>35</v>
@@ -13479,7 +13741,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>19</v>
@@ -13490,7 +13752,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>8</v>
@@ -13600,7 +13862,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>8</v>
@@ -13611,7 +13873,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>8</v>
@@ -13622,7 +13884,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>8</v>
@@ -13633,7 +13895,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>35</v>
@@ -13853,7 +14115,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>19</v>
@@ -13952,7 +14214,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>9</v>
@@ -13985,7 +14247,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>8</v>
@@ -14788,7 +15050,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>8</v>
@@ -14821,7 +15083,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>145</v>
@@ -14831,162 +15093,162 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="35" t="s">
-        <v>867</v>
-      </c>
-      <c r="B134" s="35" t="s">
+      <c r="A134" s="34" t="s">
+        <v>860</v>
+      </c>
+      <c r="B134" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C134" s="35" t="b">
+      <c r="C134" s="34" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="36" t="s">
-        <v>870</v>
-      </c>
-      <c r="B135" s="36" t="s">
+      <c r="A135" s="35" t="s">
+        <v>863</v>
+      </c>
+      <c r="B135" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C135" s="36" t="b">
+      <c r="C135" s="35" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="26" t="s">
-        <v>798</v>
-      </c>
-      <c r="B136" s="26" t="s">
+      <c r="A136" s="25" t="s">
+        <v>791</v>
+      </c>
+      <c r="B136" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C136" s="26" t="b">
+      <c r="C136" s="25" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="26" t="s">
-        <v>803</v>
-      </c>
-      <c r="B137" s="26" t="s">
+      <c r="A137" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="B137" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="26" t="b">
+      <c r="C137" s="25" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="26" t="s">
-        <v>801</v>
-      </c>
-      <c r="B138" s="26" t="s">
+      <c r="A138" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="B138" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="26" t="b">
+      <c r="C138" s="25" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="26" t="s">
-        <v>799</v>
-      </c>
-      <c r="B139" s="26" t="s">
+      <c r="A139" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="B139" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="26" t="b">
+      <c r="C139" s="25" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="26" t="s">
+      <c r="A140" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="B140" s="26" t="s">
+      <c r="B140" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="26" t="b">
+      <c r="C140" s="25" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="26" t="s">
+      <c r="A141" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="B141" s="26" t="s">
+      <c r="B141" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="26" t="b">
+      <c r="C141" s="25" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="27" t="s">
-        <v>800</v>
-      </c>
-      <c r="B142" s="27" t="s">
+      <c r="A142" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="B142" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C142" s="27" t="b">
+      <c r="C142" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="27" t="s">
-        <v>851</v>
-      </c>
-      <c r="B143" s="27" t="s">
+      <c r="A143" s="26" t="s">
+        <v>844</v>
+      </c>
+      <c r="B143" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C143" s="27" t="b">
+      <c r="C143" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="27" t="s">
-        <v>850</v>
-      </c>
-      <c r="B144" s="27" t="s">
+      <c r="A144" s="26" t="s">
+        <v>843</v>
+      </c>
+      <c r="B144" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C144" s="27" t="b">
+      <c r="C144" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="25" t="s">
-        <v>871</v>
-      </c>
-      <c r="B145" s="25" t="s">
+      <c r="A145" s="24" t="s">
+        <v>864</v>
+      </c>
+      <c r="B145" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C145" s="25" t="b">
+      <c r="C145" s="24" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="25" t="s">
-        <v>802</v>
-      </c>
-      <c r="B146" s="25" t="s">
+      <c r="A146" s="24" t="s">
+        <v>795</v>
+      </c>
+      <c r="B146" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C146" s="25" t="b">
+      <c r="C146" s="24" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="25" t="s">
+      <c r="A147" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="B147" s="25" t="s">
+      <c r="B147" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C147" s="25" t="b">
+      <c r="C147" s="24" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>8</v>
@@ -15019,7 +15281,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="B151" s="19" t="s">
         <v>8</v>
@@ -15030,7 +15292,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="B152" s="19" t="s">
         <v>19</v>
@@ -15041,7 +15303,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B153" s="19" t="s">
         <v>19</v>
@@ -15052,7 +15314,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B154" s="19" t="s">
         <v>19</v>
@@ -15063,7 +15325,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>19</v>
@@ -15074,7 +15336,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>306</v>
@@ -15085,7 +15347,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B157" s="19" t="s">
         <v>19</v>
@@ -15096,7 +15358,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>19</v>
@@ -15107,7 +15369,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>19</v>
@@ -15140,7 +15402,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="19" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>35</v>
@@ -15151,7 +15413,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>35</v>
@@ -15162,7 +15424,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="19" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B164" s="19" t="s">
         <v>19</v>
@@ -15195,7 +15457,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>145</v>
@@ -15206,7 +15468,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B168" s="10" t="s">
         <v>145</v>
@@ -15217,7 +15479,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>19</v>
@@ -15228,7 +15490,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B170" s="10" t="s">
         <v>145</v>
@@ -15239,7 +15501,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B171" s="10" t="s">
         <v>145</v>
@@ -15250,7 +15512,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B172" s="10" t="s">
         <v>145</v>
@@ -15261,7 +15523,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B173" s="10" t="s">
         <v>145</v>
@@ -15283,7 +15545,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="B175" s="10" t="s">
         <v>35</v>
@@ -15294,7 +15556,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>145</v>
@@ -15305,7 +15567,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>145</v>
@@ -15368,7 +15630,7 @@
         <v>415</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -15391,15 +15653,15 @@
         <v>418</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>872</v>
-      </c>
-      <c r="H2" s="32" t="s">
+        <v>865</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B3" t="s">
         <v>406</v>
@@ -15411,10 +15673,10 @@
         <v>377</v>
       </c>
       <c r="E3" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>416</v>
@@ -15423,12 +15685,12 @@
         <v>416</v>
       </c>
       <c r="I3" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B4" t="s">
         <v>406</v>
@@ -15440,10 +15702,10 @@
         <v>377</v>
       </c>
       <c r="E4" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>416</v>
@@ -15452,7 +15714,7 @@
         <v>416</v>
       </c>
       <c r="I4" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
